--- a/bdd/MCD.xlsx
+++ b/bdd/MCD.xlsx
@@ -305,22 +305,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1039,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1049,26 +1049,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="13"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="16"/>
     </row>
     <row r="2" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="16"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K3" s="5" t="s">
@@ -1084,13 +1084,13 @@
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="7"/>
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="13"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K4" s="5" t="s">
@@ -1106,13 +1106,13 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="7"/>
-      <c r="T4" s="15" t="s">
+      <c r="T4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="16"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="13"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K5" s="5" t="s">
@@ -1167,16 +1167,16 @@
       <c r="X6" s="7"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="13"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
       <c r="K7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1203,16 +1203,16 @@
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="16"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
       <c r="K8" s="8" t="s">
         <v>13</v>
       </c>
@@ -1258,15 +1258,15 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="7"/>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="13"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="16"/>
     </row>
     <row r="11" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
@@ -1283,22 +1283,22 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="16"/>
-      <c r="T11" s="12" t="s">
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="13"/>
+      <c r="T11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="13"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="16"/>
     </row>
     <row r="12" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K12" s="2" t="s">
@@ -1314,13 +1314,13 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="4"/>
-      <c r="T12" s="15" t="s">
+      <c r="T12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="16"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="13"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K13" s="5" t="s">
@@ -1337,7 +1337,7 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="7"/>
       <c r="T13" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="U13" s="3" t="s">
         <v>5</v>
@@ -1402,16 +1402,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="K1:Q1"/>
     <mergeCell ref="K2:Q2"/>
     <mergeCell ref="K10:Q10"/>
     <mergeCell ref="K11:Q11"/>
     <mergeCell ref="T3:X3"/>
     <mergeCell ref="T4:X4"/>
     <mergeCell ref="T11:X11"/>
-    <mergeCell ref="T12:X12"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="K1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
